--- a/result/with_base/34/arousal/s23_1.xlsx
+++ b/result/with_base/34/arousal/s23_1.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8250000178813934</v>
+        <v>0.8297991156578064</v>
       </c>
       <c r="C2" t="n">
-        <v>41681.326171875</v>
+        <v>11270.54931640625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8290909149430015</v>
+        <v>0.8115808823529411</v>
       </c>
       <c r="E2" t="n">
-        <v>41679.00319602273</v>
+        <v>11270.82111672794</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8675000071525574</v>
+        <v>0.8560267984867096</v>
       </c>
       <c r="C3" t="n">
-        <v>40883.6171875</v>
+        <v>10958.07763671875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8985227292234247</v>
+        <v>0.8610819332739886</v>
       </c>
       <c r="E3" t="n">
-        <v>40881.515625</v>
+        <v>10957.49213005515</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8900000154972076</v>
+        <v>0.8833705484867096</v>
       </c>
       <c r="C4" t="n">
-        <v>40096.958984375</v>
+        <v>10647.1318359375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.918295453895222</v>
+        <v>0.8994222704102012</v>
       </c>
       <c r="E4" t="n">
-        <v>40094.36328125</v>
+        <v>10646.75850183824</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8949999809265137</v>
+        <v>0.8878348171710968</v>
       </c>
       <c r="C5" t="n">
-        <v>39320.400390625</v>
+        <v>10343.26953125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9402272755449469</v>
+        <v>0.9131433823529411</v>
       </c>
       <c r="E5" t="n">
-        <v>39318.24502840909</v>
+        <v>10342.67423023897</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38557.43359375</v>
+        <v>10045.49951171875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9510227116671476</v>
+        <v>0.934020484195036</v>
       </c>
       <c r="E6" t="n">
-        <v>38554.96661931818</v>
+        <v>10044.83185891544</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C7" t="n">
-        <v>37807.423828125</v>
+        <v>9755.2138671875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.959545455195687</v>
+        <v>0.9396008393343758</v>
       </c>
       <c r="E7" t="n">
-        <v>37805.54580965909</v>
+        <v>9754.392061121323</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C8" t="n">
-        <v>37071.322265625</v>
+        <v>9471.87646484375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.961136357350783</v>
+        <v>0.9506959038622239</v>
       </c>
       <c r="E8" t="n">
-        <v>37069.21768465909</v>
+        <v>9471.189568014706</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36347.857421875</v>
+        <v>9196.02392578125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9678409099578857</v>
+        <v>0.9485950645278481</v>
       </c>
       <c r="E9" t="n">
-        <v>36345.86008522727</v>
+        <v>9195.261776194853</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.925000011920929</v>
+        <v>0.89453125</v>
       </c>
       <c r="C10" t="n">
-        <v>35637.66015625</v>
+        <v>8927.29931640625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9723863655870612</v>
+        <v>0.9495798314318937</v>
       </c>
       <c r="E10" t="n">
-        <v>35635.61186079546</v>
+        <v>8926.436063878677</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C11" t="n">
-        <v>34940.623046875</v>
+        <v>8665.31884765625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9794318350878629</v>
+        <v>0.9638261549613055</v>
       </c>
       <c r="E11" t="n">
-        <v>34938.49715909091</v>
+        <v>8664.585707720587</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34256.025390625</v>
+        <v>8410.60791015625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9736363671042703</v>
+        <v>0.9592305667260114</v>
       </c>
       <c r="E12" t="n">
-        <v>34254.36967329546</v>
+        <v>8409.942440257353</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9375</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C13" t="n">
-        <v>33583.986328125</v>
+        <v>8162.4677734375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9678965351160835</v>
       </c>
       <c r="E13" t="n">
-        <v>33582.40092329546</v>
+        <v>8161.93367991728</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9375</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C14" t="n">
-        <v>32925.365234375</v>
+        <v>7921.269287109375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9825000112706964</v>
+        <v>0.9726890746284934</v>
       </c>
       <c r="E14" t="n">
-        <v>32923.17294034091</v>
+        <v>7920.640452665441</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9375</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C15" t="n">
-        <v>32277.6689453125</v>
+        <v>7686.33154296875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9869318225167014</v>
+        <v>0.9791885509210474</v>
       </c>
       <c r="E15" t="n">
-        <v>32276.02077414773</v>
+        <v>7685.776596966912</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9375</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C16" t="n">
-        <v>31642.36328125</v>
+        <v>7457.791259765625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9838636517524719</v>
+        <v>0.9825367647058824</v>
       </c>
       <c r="E16" t="n">
-        <v>31641.07297585227</v>
+        <v>7457.287281709559</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9453125</v>
       </c>
       <c r="C17" t="n">
-        <v>31019.4716796875</v>
+        <v>7235.5791015625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9863636493682861</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E17" t="n">
-        <v>31018.10706676136</v>
+        <v>7235.120145909927</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9375</v>
       </c>
       <c r="C18" t="n">
-        <v>30408.193359375</v>
+        <v>7019.537353515625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9873863729563627</v>
+        <v>0.9789259468807894</v>
       </c>
       <c r="E18" t="n">
-        <v>30406.69460227273</v>
+        <v>7019.018698299632</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C19" t="n">
-        <v>29807.9912109375</v>
+        <v>6809.720703125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9680934863931993</v>
       </c>
       <c r="E19" t="n">
-        <v>29806.72389914773</v>
+        <v>6809.003762637868</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C20" t="n">
-        <v>29219.0830078125</v>
+        <v>6605.118408203125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9778098744504592</v>
       </c>
       <c r="E20" t="n">
-        <v>29218.10830965909</v>
+        <v>6604.651051240809</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C21" t="n">
-        <v>28641.8984375</v>
+        <v>6406.4150390625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9863636493682861</v>
+        <v>0.9849002115866717</v>
       </c>
       <c r="E21" t="n">
-        <v>28640.68909801136</v>
+        <v>6405.966653262868</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C22" t="n">
-        <v>28075.02734375</v>
+        <v>6213.1708984375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9795824569814345</v>
       </c>
       <c r="E22" t="n">
-        <v>28073.98952414773</v>
+        <v>6212.848403033088</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C23" t="n">
-        <v>27519.0654296875</v>
+        <v>6025.51513671875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9888636469841003</v>
+        <v>0.9837841391563416</v>
       </c>
       <c r="E23" t="n">
-        <v>27518.12340198864</v>
+        <v>6025.073443244485</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.94140625</v>
       </c>
       <c r="C24" t="n">
-        <v>26973.2939453125</v>
+        <v>5842.942626953125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="E24" t="n">
-        <v>26972.69087357954</v>
+        <v>5842.537367876838</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.953125</v>
       </c>
       <c r="C25" t="n">
-        <v>26438.359375</v>
+        <v>5665.358642578125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9871323529411765</v>
       </c>
       <c r="E25" t="n">
-        <v>26437.65163352273</v>
+        <v>5665.11173023897</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C26" t="n">
-        <v>25913.6953125</v>
+        <v>5493.0439453125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9914772781458768</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E26" t="n">
-        <v>25912.70170454546</v>
+        <v>5492.660443474265</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.94921875</v>
       </c>
       <c r="C27" t="n">
-        <v>25398.537109375</v>
+        <v>5325.360107421875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9889772805300626</v>
+        <v>0.9921875</v>
       </c>
       <c r="E27" t="n">
-        <v>25397.72336647727</v>
+        <v>5325.01522288603</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C28" t="n">
-        <v>24892.9208984375</v>
+        <v>5162.427490234375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9901523099226111</v>
       </c>
       <c r="E28" t="n">
-        <v>24892.40021306818</v>
+        <v>5162.107249540441</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C29" t="n">
-        <v>24397.6845703125</v>
+        <v>5004.12890625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E29" t="n">
-        <v>24396.72088068182</v>
+        <v>5003.802131204044</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C30" t="n">
-        <v>23911.123046875</v>
+        <v>4850.240478515625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E30" t="n">
-        <v>23910.36807528409</v>
+        <v>4849.960276884191</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C31" t="n">
-        <v>23433.9453125</v>
+        <v>4700.908447265625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.996363639831543</v>
+        <v>0.980895484195036</v>
       </c>
       <c r="E31" t="n">
-        <v>23433.22443181818</v>
+        <v>4700.492388556985</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C32" t="n">
-        <v>22965.7197265625</v>
+        <v>4555.482177734375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E32" t="n">
-        <v>22965.08931107954</v>
+        <v>4555.21435546875</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9453125</v>
       </c>
       <c r="C33" t="n">
-        <v>22506.70703125</v>
+        <v>4414.319580078125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9824054626857534</v>
       </c>
       <c r="E33" t="n">
-        <v>22505.88689630682</v>
+        <v>4414.122185202206</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C34" t="n">
-        <v>22055.7998046875</v>
+        <v>4277.221923828125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9860819332739886</v>
       </c>
       <c r="E34" t="n">
-        <v>22055.41921164773</v>
+        <v>4277.00040211397</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C35" t="n">
-        <v>21614.2431640625</v>
+        <v>4144.003662109375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9869353981579051</v>
       </c>
       <c r="E35" t="n">
-        <v>21613.45738636364</v>
+        <v>4143.807818244485</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.94140625</v>
       </c>
       <c r="C36" t="n">
-        <v>21180.46484375</v>
+        <v>4014.638061523438</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9883140746284934</v>
       </c>
       <c r="E36" t="n">
-        <v>21179.91654829546</v>
+        <v>4014.427045036765</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C37" t="n">
-        <v>20755.3134765625</v>
+        <v>3888.953979492188</v>
       </c>
       <c r="D37" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9831276255495408</v>
       </c>
       <c r="E37" t="n">
-        <v>20754.6171875</v>
+        <v>3888.755600873162</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C38" t="n">
-        <v>20337.728515625</v>
+        <v>3766.834594726562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9856223744504592</v>
       </c>
       <c r="E38" t="n">
-        <v>20337.40465198864</v>
+        <v>3766.675809972427</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C39" t="n">
-        <v>19928.5859375</v>
+        <v>3648.303466796875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E39" t="n">
-        <v>19928.09659090909</v>
+        <v>3648.103328929228</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C40" t="n">
-        <v>19527.14453125</v>
+        <v>3533.1396484375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E40" t="n">
-        <v>19526.58469460227</v>
+        <v>3532.943732766544</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C41" t="n">
-        <v>19133.2412109375</v>
+        <v>3421.298095703125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E41" t="n">
-        <v>19132.68430397727</v>
+        <v>3421.126579733456</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C42" t="n">
-        <v>18746.62890625</v>
+        <v>3312.749633789062</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9833902295897988</v>
       </c>
       <c r="E42" t="n">
-        <v>18746.24751420454</v>
+        <v>3312.554113051471</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C43" t="n">
-        <v>18367.640625</v>
+        <v>3207.260620117188</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9818802510990816</v>
       </c>
       <c r="E43" t="n">
-        <v>18367.17063210227</v>
+        <v>3207.130098230698</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C44" t="n">
-        <v>17995.65234375</v>
+        <v>3104.911376953125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9848345588235294</v>
       </c>
       <c r="E44" t="n">
-        <v>17995.30788352273</v>
+        <v>3104.74857823989</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C45" t="n">
-        <v>17630.9931640625</v>
+        <v>3005.537475585938</v>
       </c>
       <c r="D45" t="n">
-        <v>0.996363639831543</v>
+        <v>0.976299895959742</v>
       </c>
       <c r="E45" t="n">
-        <v>17630.50408380682</v>
+        <v>3005.368537454044</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C46" t="n">
-        <v>17273.125</v>
+        <v>2909.004516601562</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9883797273916357</v>
       </c>
       <c r="E46" t="n">
-        <v>17272.62872869318</v>
+        <v>2908.849839154412</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C47" t="n">
-        <v>16922.234375</v>
+        <v>2815.305541992188</v>
       </c>
       <c r="D47" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9892331922755522</v>
       </c>
       <c r="E47" t="n">
-        <v>16921.57759232954</v>
+        <v>2815.169979319853</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C48" t="n">
-        <v>16577.6982421875</v>
+        <v>2724.397338867188</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9760372884133283</v>
       </c>
       <c r="E48" t="n">
-        <v>16577.21537642046</v>
+        <v>2724.280732996323</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9375</v>
       </c>
       <c r="C49" t="n">
-        <v>16240.05908203125</v>
+        <v>2636.170776367188</v>
       </c>
       <c r="D49" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9621192216873169</v>
       </c>
       <c r="E49" t="n">
-        <v>16239.44380326705</v>
+        <v>2636.042882582721</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.95703125</v>
       </c>
       <c r="C50" t="n">
-        <v>15908.57373046875</v>
+        <v>2550.446166992188</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9746586119427401</v>
       </c>
       <c r="E50" t="n">
-        <v>15908.11363636364</v>
+        <v>2550.361256318934</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,927 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C51" t="n">
-        <v>15583.63330078125</v>
+        <v>2467.29052734375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9810924354721519</v>
       </c>
       <c r="E51" t="n">
-        <v>15583.10635653409</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15264.71875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15264.29918323864</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14951.95068359375</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14951.57412997159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14645.248046875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14644.84854403409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14344.3740234375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14344.00967684659</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14049.30126953125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14048.90491832386</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13759.81494140625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13759.45454545455</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13475.98681640625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9917045506564054</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13475.59801136364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13197.41845703125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13197.09765625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12924.3701171875</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12923.99627130682</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12656.51904296875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12656.12952769886</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12393.80126953125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12393.43581321023</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12136.00439453125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12135.7724609375</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11883.3583984375</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11883.06365411932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11635.4423828125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11635.24138849432</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11392.4228515625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11392.19202769886</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11154.22705078125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11153.83966619318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10920.2998046875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9961363673210144</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10920.10031960227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10691.208984375</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10690.88059303977</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10466.38232421875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10466.10120738636</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10246.03564453125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10245.69868607955</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10029.673828125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10029.55282315341</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9817.74267578125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9817.615767045454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9610.10009765625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9609.8173828125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9406.16845703125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9406.04989346591</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9206.54833984375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9936363697052002</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9206.26473721591</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9010.59375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9010.37606534091</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8818.4306640625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8818.324928977272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8630.2119140625</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8630.033735795454</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8445.52001953125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8445.4375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8264.52099609375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8264.447443181818</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7150837988826816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7541899441340782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7653631284916201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7821229050279329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7932960893854749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7988826815642458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01639344262295082</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7988826815642458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01639344262295082</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9553072625698324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9553072625698324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9720670391061452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9720670391061452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9832402234636871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.06557377049180328</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9832402234636871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.06557377049180328</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.994413407821229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.994413407821229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3934426229508197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4262295081967213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.819672131147541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.00558659217877095</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.819672131147541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.00558659217877095</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9344262295081968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01675977653631285</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9344262295081968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01675977653631285</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9508196721311475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02793296089385475</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9508196721311475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.02793296089385475</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9672131147540983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.0446927374301676</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9672131147540983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.0446927374301676</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9836065573770492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2011173184357542</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9836065573770492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.2011173184357542</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9945965747779101</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2467.214513442096</v>
       </c>
     </row>
   </sheetData>
